--- a/FH-task2/FH_bases_ultimateBASE_pafam_optimization_results.xlsx
+++ b/FH-task2/FH_bases_ultimateBASE_pafam_optimization_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="72">
   <si>
     <t>FH init</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">BASE 0 </t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
   <si>
     <t>Total FH flown in this base</t>
@@ -236,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +250,14 @@
     <font>
       <b/>
       <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -296,15 +307,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,67 +630,73 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4">
@@ -735,7 +755,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B5">
@@ -794,7 +814,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -853,7 +873,7 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B7">
@@ -912,7 +932,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B8">
@@ -971,7 +991,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9">
@@ -1030,7 +1050,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B10">
@@ -1089,7 +1109,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B11">
@@ -1148,7 +1168,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12">
@@ -1207,7 +1227,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B13">
@@ -1266,7 +1286,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B14">
@@ -1325,7 +1345,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B15">
@@ -1384,7 +1404,7 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B16">
@@ -1443,33 +1463,34 @@
       </c>
     </row>
     <row r="18" spans="16:18">
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <f>SUM(P3:P16)</f>
         <v>0</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>42</v>
+      <c r="R18" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="16:18">
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <v>1212</v>
       </c>
-      <c r="R19" s="3" t="s">
-        <v>43</v>
+      <c r="R19" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="16:18">
-      <c r="P20" s="3">
+      <c r="P20" s="4">
         <v>250</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>44</v>
+      <c r="R20" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1485,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1494,68 +1515,74 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
+      <c r="A4" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B4">
         <v>530</v>
@@ -1613,7 +1640,7 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B5">
@@ -1668,12 +1695,12 @@
         <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>46</v>
+      <c r="A6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B6">
         <v>889</v>
@@ -1709,13 +1736,13 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6">
         <v>111</v>
@@ -1731,8 +1758,8 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>47</v>
+      <c r="A7" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B7">
         <v>1500</v>
@@ -1741,13 +1768,13 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1790,8 +1817,8 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
+      <c r="A8" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B8">
         <v>1697</v>
@@ -1833,7 +1860,7 @@
         <v>23</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8">
         <v>303</v>
@@ -1849,8 +1876,8 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
+      <c r="A9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B9">
         <v>1780</v>
@@ -1871,28 +1898,28 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9">
         <v>70</v>
@@ -1908,8 +1935,8 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
-        <v>50</v>
+      <c r="A10" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B10">
         <v>1447</v>
@@ -1924,22 +1951,22 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -1967,7 +1994,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B11">
@@ -2019,40 +2046,41 @@
         <v>2077</v>
       </c>
       <c r="R11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <f>SUM(P3:P11)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>42</v>
+      <c r="R13" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>1043</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>43</v>
+      <c r="R14" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <v>250</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>44</v>
+      <c r="R15" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2068,7 +2096,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2077,67 +2105,73 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B4">
@@ -2189,15 +2223,15 @@
         <v>495</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>58</v>
+      <c r="A5" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B5">
         <v>340</v>
@@ -2227,19 +2261,19 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P5">
         <v>160</v>
@@ -2255,7 +2289,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -2314,8 +2348,8 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
-        <v>59</v>
+      <c r="A7" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2324,10 +2358,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -2373,8 +2407,8 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>60</v>
+      <c r="A8" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B8">
         <v>1338</v>
@@ -2416,7 +2450,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P8">
         <v>162</v>
@@ -2432,7 +2466,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B9">
@@ -2484,14 +2518,14 @@
         <v>1707</v>
       </c>
       <c r="R9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B10">
@@ -2550,33 +2584,34 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <f>SUM(P3:P10)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>42</v>
+      <c r="R12" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <v>666</v>
       </c>
-      <c r="R13" s="3" t="s">
-        <v>43</v>
+      <c r="R13" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <v>100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>44</v>
+      <c r="R14" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2592,7 +2627,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2601,67 +2636,73 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B4">
@@ -2713,15 +2754,15 @@
         <v>422</v>
       </c>
       <c r="R4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
+      <c r="A5" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B5">
         <v>242</v>
@@ -2757,13 +2798,13 @@
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P5">
         <v>258</v>
@@ -2779,8 +2820,8 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
+      <c r="A6" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -2789,16 +2830,16 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -2838,7 +2879,7 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B7">
@@ -2897,8 +2938,8 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="2" t="s">
-        <v>67</v>
+      <c r="A8" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B8">
         <v>531</v>
@@ -2956,33 +2997,34 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <f>SUM(P3:P8)</f>
         <v>0</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>42</v>
+      <c r="R10" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <v>579</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>43</v>
+      <c r="R11" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>44</v>
+      <c r="R12" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="G1:M1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FH-task2/FH_bases_ultimateBASE_pafam_optimization_results.xlsx
+++ b/FH-task2/FH_bases_ultimateBASE_pafam_optimization_results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="74">
   <si>
     <t>FH init</t>
   </si>
@@ -175,37 +175,43 @@
     <t>AT004</t>
   </si>
   <si>
+    <t>1780, 1850</t>
+  </si>
+  <si>
     <t>ISO3_D3-B8</t>
   </si>
   <si>
     <t>D3-B2</t>
   </si>
   <si>
+    <t>ISO2_E-B8</t>
+  </si>
+  <si>
+    <t>ISO4_F-B2</t>
+  </si>
+  <si>
+    <t>1850, 1850</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base_0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE 1 </t>
+  </si>
+  <si>
+    <t>AC004</t>
+  </si>
+  <si>
+    <t>AC009</t>
+  </si>
+  <si>
+    <t>AC011</t>
+  </si>
+  <si>
+    <t>ISO2_E-B9</t>
+  </si>
+  <si>
     <t>ISO4_F-B6</t>
-  </si>
-  <si>
-    <t>ISO2_E-B8</t>
-  </si>
-  <si>
-    <t>ISO4_F-B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">base_0 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE 1 </t>
-  </si>
-  <si>
-    <t>AC004</t>
-  </si>
-  <si>
-    <t>AC009</t>
-  </si>
-  <si>
-    <t>AC011</t>
-  </si>
-  <si>
-    <t>ISO2_E-B9</t>
   </si>
   <si>
     <t>ISO1_D-B9</t>
@@ -1506,7 +1512,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1695,7 +1701,7 @@
         <v>40</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1768,13 +1774,13 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>8</v>
@@ -1879,8 +1885,8 @@
       <c r="A9" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B9">
-        <v>1780</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -1898,40 +1904,40 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="L9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="P9">
         <v>70</v>
       </c>
-      <c r="Q9">
-        <v>1850</v>
+      <c r="Q9" t="s">
+        <v>57</v>
       </c>
       <c r="R9" t="s">
         <v>34</v>
       </c>
       <c r="S9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1951,22 +1957,22 @@
         <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L10">
         <v>30</v>
@@ -2046,7 +2052,7 @@
         <v>2077</v>
       </c>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S11" t="s">
         <v>40</v>
@@ -2088,7 +2094,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2096,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2223,7 +2229,7 @@
         <v>495</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
         <v>34</v>
@@ -2231,7 +2237,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <v>340</v>
@@ -2261,19 +2267,19 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5">
         <v>160</v>
@@ -2349,7 +2355,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>1000</v>
@@ -2358,10 +2364,10 @@
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>1338</v>
@@ -2450,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P8">
         <v>162</v>
@@ -2518,7 +2524,7 @@
         <v>1707</v>
       </c>
       <c r="R9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S9" t="s">
         <v>39</v>
@@ -2526,13 +2532,13 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <v>2077</v>
+        <v>1850</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -2547,64 +2553,123 @@
         <v>34</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10">
-        <v>27</v>
-      </c>
-      <c r="M10">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <v>24</v>
-      </c>
-      <c r="O10">
-        <v>23</v>
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
+        <v>34</v>
       </c>
       <c r="P10">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2177</v>
+        <v>1850</v>
       </c>
       <c r="R10" t="s">
         <v>38</v>
       </c>
       <c r="S10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="P12" s="4">
-        <f>SUM(P3:P10)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>2077</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11">
+        <v>27</v>
+      </c>
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>24</v>
+      </c>
+      <c r="O11">
+        <v>23</v>
+      </c>
+      <c r="P11">
+        <v>100</v>
+      </c>
+      <c r="Q11">
+        <v>2177</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="P13" s="4">
-        <v>666</v>
+        <f>SUM(P3:P11)</f>
+        <v>0</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="P14" s="4">
+        <v>666</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="P15" s="4">
         <v>100</v>
       </c>
-      <c r="R14" s="4" t="s">
+      <c r="R15" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2627,7 +2692,7 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2754,7 +2819,7 @@
         <v>422</v>
       </c>
       <c r="R4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="S4" t="s">
         <v>34</v>
@@ -2762,7 +2827,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B5">
         <v>242</v>
@@ -2798,13 +2863,13 @@
         <v>24</v>
       </c>
       <c r="M5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P5">
         <v>258</v>
@@ -2821,7 +2886,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>500</v>
@@ -2830,16 +2895,16 @@
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>27</v>
@@ -2939,7 +3004,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B8">
         <v>531</v>
